--- a/biology/Botanique/Laetiporus/Laetiporus.xlsx
+++ b/biology/Botanique/Laetiporus/Laetiporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laetiporus est un genre de champignons basidiomycètes appartenant à la famille des Fomitopsidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Laetiporus ailaoshanensis (en)[1] B.K.Cui &amp; J.Song (2014)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Laetiporus ailaoshanensis (en) B.K.Cui &amp; J.Song (2014)
 Laetiporus baudonii (en)  (Pat.) Ryvarden (1991)
 Laetiporus caribensis (en)  Banik &amp; D.L.Lindner (2012)
 Laetiporus cincinnatus (en)  (Morgan) Burds., Banik &amp; T.J.Volk (1998)
@@ -527,10 +541,10 @@
 Laetiporus montanus (en)  Černý ex Tomšovský &amp; Jankovský (2009)
 Laetiporus persicinus (en)  (Berk. &amp; M.A.Curtis) Gilb. (1981)
 Laetiporus portentosus (en)  (Berk.) Rajchenb. (1995)
-Laetiporus squalidus  R.M.Pires, Motato-Vásq. &amp; Gugliotta (2016)[2]
+Laetiporus squalidus  R.M.Pires, Motato-Vásq. &amp; Gugliotta (2016)
 Laetiporus sulphureus  (Bull.) Murrill (1920) - Polypore soufré
 Laetiporus versisporus   (Lloyd) Imazeki (1943) 
-Laetiporus zonatus (en)[1]  B.K.Cui &amp; J.Song (2014)</t>
+Laetiporus zonatus (en)  B.K.Cui &amp; J.Song (2014)</t>
         </is>
       </c>
     </row>
